--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H2">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J2">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>493.9354714220459</v>
+        <v>167.839808758638</v>
       </c>
       <c r="R2">
-        <v>493.9354714220459</v>
+        <v>1510.558278827742</v>
       </c>
       <c r="S2">
-        <v>0.006253423263593203</v>
+        <v>0.001349868476775397</v>
       </c>
       <c r="T2">
-        <v>0.006253423263593203</v>
+        <v>0.001349868476775397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H3">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J3">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>2486.556605105903</v>
+        <v>683.17757581457</v>
       </c>
       <c r="R3">
-        <v>2486.556605105903</v>
+        <v>6148.59818233113</v>
       </c>
       <c r="S3">
-        <v>0.03148081443886473</v>
+        <v>0.005494524096831466</v>
       </c>
       <c r="T3">
-        <v>0.03148081443886473</v>
+        <v>0.005494524096831468</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H4">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J4">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>2537.58390139016</v>
+        <v>795.12983221322</v>
       </c>
       <c r="R4">
-        <v>2537.58390139016</v>
+        <v>7156.16848991898</v>
       </c>
       <c r="S4">
-        <v>0.03212684069153202</v>
+        <v>0.006394911334722887</v>
       </c>
       <c r="T4">
-        <v>0.03212684069153202</v>
+        <v>0.006394911334722889</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>45.5834107870409</v>
+        <v>12.486902</v>
       </c>
       <c r="H5">
-        <v>45.5834107870409</v>
+        <v>37.460706</v>
       </c>
       <c r="I5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="J5">
-        <v>0.07934339828917843</v>
+        <v>0.01504353194025314</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>748.9744337109443</v>
+        <v>224.3339207078774</v>
       </c>
       <c r="R5">
-        <v>748.9744337109443</v>
+        <v>2019.005286370896</v>
       </c>
       <c r="S5">
-        <v>0.009482319895188477</v>
+        <v>0.001804228031923386</v>
       </c>
       <c r="T5">
-        <v>0.009482319895188477</v>
+        <v>0.001804228031923387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H6">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J6">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>5304.093623521781</v>
+        <v>619.445550465766</v>
       </c>
       <c r="R6">
-        <v>5304.093623521781</v>
+        <v>5575.009954191894</v>
       </c>
       <c r="S6">
-        <v>0.0671519750588357</v>
+        <v>0.004981952898045629</v>
       </c>
       <c r="T6">
-        <v>0.0671519750588357</v>
+        <v>0.00498195289804563</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H7">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J7">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>26701.72481376386</v>
+        <v>2521.400093614824</v>
       </c>
       <c r="R7">
-        <v>26701.72481376386</v>
+        <v>22692.60084253341</v>
       </c>
       <c r="S7">
-        <v>0.3380546585320661</v>
+        <v>0.02027861285640328</v>
       </c>
       <c r="T7">
-        <v>0.3380546585320661</v>
+        <v>0.02027861285640328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H8">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J8">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>27249.67808399098</v>
+        <v>2934.581731532874</v>
       </c>
       <c r="R8">
-        <v>27249.67808399098</v>
+        <v>26411.23558379586</v>
       </c>
       <c r="S8">
-        <v>0.3449919690223111</v>
+        <v>0.02360166757347616</v>
       </c>
       <c r="T8">
-        <v>0.3449919690223111</v>
+        <v>0.02360166757347616</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>489.494463310833</v>
+        <v>46.08534733333334</v>
       </c>
       <c r="H9">
-        <v>489.494463310833</v>
+        <v>138.256042</v>
       </c>
       <c r="I9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="J9">
-        <v>0.8520238721113981</v>
+        <v>0.05552108878460485</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>8042.812771858251</v>
+        <v>827.9480894837636</v>
       </c>
       <c r="R9">
-        <v>8042.812771858251</v>
+        <v>7451.532805353872</v>
       </c>
       <c r="S9">
-        <v>0.1018252694981851</v>
+        <v>0.006658855456679783</v>
       </c>
       <c r="T9">
-        <v>0.1018252694981851</v>
+        <v>0.006658855456679783</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H10">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J10">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>427.2584787220625</v>
+        <v>8958.269223604662</v>
       </c>
       <c r="R10">
-        <v>427.2584787220625</v>
+        <v>80624.42301244197</v>
       </c>
       <c r="S10">
-        <v>0.005409265511374925</v>
+        <v>0.07204777770451787</v>
       </c>
       <c r="T10">
-        <v>0.005409265511374925</v>
+        <v>0.07204777770451788</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H11">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J11">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>2150.893089931719</v>
+        <v>36463.86811890078</v>
       </c>
       <c r="R11">
-        <v>2150.893089931719</v>
+        <v>328174.813070107</v>
       </c>
       <c r="S11">
-        <v>0.02723117829006469</v>
+        <v>0.2932643124360467</v>
       </c>
       <c r="T11">
-        <v>0.02723117829006469</v>
+        <v>0.2932643124360467</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.4300467868052</v>
+        <v>666.4749603333333</v>
       </c>
       <c r="H12">
-        <v>39.4300467868052</v>
+        <v>1999.424881</v>
       </c>
       <c r="I12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="J12">
-        <v>0.06863272959942356</v>
+        <v>0.8029323328679479</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>2195.03214502113</v>
+        <v>42439.1993613913</v>
       </c>
       <c r="R12">
-        <v>2195.03214502113</v>
+        <v>381952.7942525217</v>
       </c>
       <c r="S12">
-        <v>0.02778999661735444</v>
+        <v>0.341321512585317</v>
       </c>
       <c r="T12">
-        <v>0.02778999661735444</v>
+        <v>0.3413215125853171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>666.4749603333333</v>
+      </c>
+      <c r="H13">
+        <v>1999.424881</v>
+      </c>
+      <c r="I13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="J13">
+        <v>0.8029323328679479</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N13">
+        <v>53.896616</v>
+      </c>
+      <c r="O13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P13">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q13">
+        <v>11973.58167023363</v>
+      </c>
+      <c r="R13">
+        <v>107762.2350321027</v>
+      </c>
+      <c r="S13">
+        <v>0.09629873014206622</v>
+      </c>
+      <c r="T13">
+        <v>0.09629873014206623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H14">
+        <v>315.012023</v>
+      </c>
+      <c r="I14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J14">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.441269</v>
+      </c>
+      <c r="N14">
+        <v>40.323807</v>
+      </c>
+      <c r="O14">
+        <v>0.08973082133481231</v>
+      </c>
+      <c r="P14">
+        <v>0.08973082133481232</v>
+      </c>
+      <c r="Q14">
+        <v>1411.387113125729</v>
+      </c>
+      <c r="R14">
+        <v>12702.48401813156</v>
+      </c>
+      <c r="S14">
+        <v>0.01135122225547341</v>
+      </c>
+      <c r="T14">
+        <v>0.01135122225547341</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H15">
+        <v>315.012023</v>
+      </c>
+      <c r="I15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J15">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>54.711535</v>
+      </c>
+      <c r="N15">
+        <v>164.134605</v>
+      </c>
+      <c r="O15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="P15">
+        <v>0.3652416280068742</v>
+      </c>
+      <c r="Q15">
+        <v>5744.930440595102</v>
+      </c>
+      <c r="R15">
+        <v>51704.37396535591</v>
+      </c>
+      <c r="S15">
+        <v>0.04620417861759274</v>
+      </c>
+      <c r="T15">
+        <v>0.04620417861759275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="H13">
-        <v>39.4300467868052</v>
-      </c>
-      <c r="I13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="J13">
-        <v>0.06863272959942356</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="N13">
-        <v>16.4308554533149</v>
-      </c>
-      <c r="O13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="P13">
-        <v>0.1195098785740031</v>
-      </c>
-      <c r="Q13">
-        <v>647.8693992714399</v>
-      </c>
-      <c r="R13">
-        <v>647.8693992714399</v>
-      </c>
-      <c r="S13">
-        <v>0.008202289180629495</v>
-      </c>
-      <c r="T13">
-        <v>0.008202289180629495</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H16">
+        <v>315.012023</v>
+      </c>
+      <c r="I16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J16">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.67711</v>
+      </c>
+      <c r="N16">
+        <v>191.03133</v>
+      </c>
+      <c r="O16">
+        <v>0.4250937452800914</v>
+      </c>
+      <c r="P16">
+        <v>0.4250937452800915</v>
+      </c>
+      <c r="Q16">
+        <v>6686.351746631177</v>
+      </c>
+      <c r="R16">
+        <v>60177.16571968059</v>
+      </c>
+      <c r="S16">
+        <v>0.05377565378657537</v>
+      </c>
+      <c r="T16">
+        <v>0.05377565378657538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>105.0040076666667</v>
+      </c>
+      <c r="H17">
+        <v>315.012023</v>
+      </c>
+      <c r="I17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="J17">
+        <v>0.1265030464071941</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>17.96553866666667</v>
+      </c>
+      <c r="N17">
+        <v>53.896616</v>
+      </c>
+      <c r="O17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="P17">
+        <v>0.119933805378222</v>
+      </c>
+      <c r="Q17">
+        <v>1886.453559890463</v>
+      </c>
+      <c r="R17">
+        <v>16978.08203901417</v>
+      </c>
+      <c r="S17">
+        <v>0.01517199174755261</v>
+      </c>
+      <c r="T17">
+        <v>0.01517199174755261</v>
       </c>
     </row>
   </sheetData>
